--- a/MonteCarloResultsBUS6.xlsx
+++ b/MonteCarloResultsBUS6.xlsx
@@ -621,28 +621,28 @@
         <v>138</v>
       </c>
       <c r="F2">
-        <v>-1.270842647851735</v>
+        <v>1.231171979127049</v>
       </c>
       <c r="G2">
-        <v>220</v>
+        <v>973</v>
       </c>
       <c r="H2">
-        <v>3.425498591709449</v>
+        <v>3.503715529499278</v>
       </c>
       <c r="I2">
-        <v>-0.3709949409780776</v>
+        <v>0.3513903936439148</v>
       </c>
       <c r="J2">
-        <v>-51.1973018549747</v>
+        <v>48.49187432286024</v>
       </c>
       <c r="K2">
-        <v>-175.3762854035394</v>
+        <v>169.9017331195327</v>
       </c>
       <c r="L2">
-        <v>472.7188056559039</v>
+        <v>483.5127430709003</v>
       </c>
       <c r="M2">
-        <v>-0.2255745699936829</v>
+        <v>0.2185330262950511</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -662,28 +662,28 @@
         <v>126</v>
       </c>
       <c r="F3">
-        <v>-1.360920773525611</v>
+        <v>1.123142559993377</v>
       </c>
       <c r="G3">
-        <v>219</v>
+        <v>1004</v>
       </c>
       <c r="H3">
-        <v>3.685050313701767</v>
+        <v>3.097591383089303</v>
       </c>
       <c r="I3">
-        <v>-0.3693086003372681</v>
+        <v>0.3625857710364753</v>
       </c>
       <c r="J3">
-        <v>-46.53288364249578</v>
+        <v>45.68580715059588</v>
       </c>
       <c r="K3">
-        <v>-171.4760174642269</v>
+        <v>141.5159625591655</v>
       </c>
       <c r="L3">
-        <v>464.3163395264227</v>
+        <v>390.2965142692522</v>
       </c>
       <c r="M3">
-        <v>-0.2460544758534304</v>
+        <v>0.2030641748468025</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -703,28 +703,28 @@
         <v>138</v>
       </c>
       <c r="F4">
-        <v>-1.289479185642852</v>
+        <v>1.267348158874041</v>
       </c>
       <c r="G4">
-        <v>211</v>
+        <v>1021</v>
       </c>
       <c r="H4">
-        <v>3.623986526474936</v>
+        <v>3.437107788366523</v>
       </c>
       <c r="I4">
-        <v>-0.3558178752107926</v>
+        <v>0.368725171542073</v>
       </c>
       <c r="J4">
-        <v>-49.10286677908937</v>
+        <v>50.88407367280607</v>
       </c>
       <c r="K4">
-        <v>-177.9481276187136</v>
+        <v>174.8940459246177</v>
       </c>
       <c r="L4">
-        <v>500.1101406535412</v>
+        <v>474.3208747945802</v>
       </c>
       <c r="M4">
-        <v>-0.2288825554516063</v>
+        <v>0.2249542982001423</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -744,28 +744,28 @@
         <v>126</v>
       </c>
       <c r="F5">
-        <v>-1.311919330056164</v>
+        <v>1.177506119739935</v>
       </c>
       <c r="G5">
-        <v>217</v>
+        <v>969</v>
       </c>
       <c r="H5">
-        <v>3.585106740660393</v>
+        <v>3.364823989225883</v>
       </c>
       <c r="I5">
-        <v>-0.3659359190556493</v>
+        <v>0.3499458288190683</v>
       </c>
       <c r="J5">
-        <v>-46.10792580101181</v>
+        <v>44.09317443120261</v>
       </c>
       <c r="K5">
-        <v>-165.3018355870767</v>
+        <v>148.3657710872319</v>
       </c>
       <c r="L5">
-        <v>451.7234493232095</v>
+        <v>423.9678226424613</v>
       </c>
       <c r="M5">
-        <v>-0.2371950148741545</v>
+        <v>0.2128931064489803</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -785,28 +785,28 @@
         <v>118</v>
       </c>
       <c r="F6">
-        <v>-1.26255313504257</v>
+        <v>1.19117157729362</v>
       </c>
       <c r="G6">
-        <v>219</v>
+        <v>1035</v>
       </c>
       <c r="H6">
-        <v>3.418694105389241</v>
+        <v>3.186815553165249</v>
       </c>
       <c r="I6">
-        <v>-0.3693086003372681</v>
+        <v>0.3737811484290358</v>
       </c>
       <c r="J6">
-        <v>-43.57841483979764</v>
+        <v>44.10617551462622</v>
       </c>
       <c r="K6">
-        <v>-148.9812699350232</v>
+        <v>140.5582461206471</v>
       </c>
       <c r="L6">
-        <v>403.4059044359304</v>
+        <v>376.0442352734994</v>
       </c>
       <c r="M6">
-        <v>-0.2730902431097078</v>
+        <v>0.25765041216861</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -826,28 +826,28 @@
         <v>118</v>
       </c>
       <c r="F7">
-        <v>-1.225949030687696</v>
+        <v>1.137193104189794</v>
       </c>
       <c r="G7">
-        <v>225</v>
+        <v>964</v>
       </c>
       <c r="H7">
-        <v>3.231056778656905</v>
+        <v>3.266481022304501</v>
       </c>
       <c r="I7">
-        <v>-0.3794266441821248</v>
+        <v>0.3481401227880101</v>
       </c>
       <c r="J7">
-        <v>-44.77234401349072</v>
+        <v>41.08053448898519</v>
       </c>
       <c r="K7">
-        <v>-144.6619856211481</v>
+        <v>134.1887862943956</v>
       </c>
       <c r="L7">
-        <v>381.2646998815148</v>
+        <v>385.4447606319311</v>
       </c>
       <c r="M7">
-        <v>-0.2651727753377486</v>
+        <v>0.2459748684362524</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -867,28 +867,28 @@
         <v>147</v>
       </c>
       <c r="F8">
-        <v>-1.332312208976973</v>
+        <v>1.215087287309962</v>
       </c>
       <c r="G8">
-        <v>236</v>
+        <v>1040</v>
       </c>
       <c r="H8">
-        <v>3.347716694590445</v>
+        <v>3.235169902462775</v>
       </c>
       <c r="I8">
-        <v>-0.3979763912310287</v>
+        <v>0.3755868544600939</v>
       </c>
       <c r="J8">
-        <v>-58.50252951096122</v>
+        <v>55.2112676056338</v>
       </c>
       <c r="K8">
-        <v>-195.8498947196151</v>
+        <v>178.6178312345644</v>
       </c>
       <c r="L8">
-        <v>492.1143541047954</v>
+        <v>475.5699756620279</v>
       </c>
       <c r="M8">
-        <v>-0.2210305954692798</v>
+        <v>0.2015829809647227</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -908,28 +908,28 @@
         <v>147</v>
       </c>
       <c r="F9">
-        <v>-1.385858811891795</v>
+        <v>1.225528538586936</v>
       </c>
       <c r="G9">
-        <v>246</v>
+        <v>1062</v>
       </c>
       <c r="H9">
-        <v>3.340708436796076</v>
+        <v>3.195375257389101</v>
       </c>
       <c r="I9">
-        <v>-0.4148397976391231</v>
+        <v>0.3835319609967497</v>
       </c>
       <c r="J9">
-        <v>-60.9814502529511</v>
+        <v>56.37919826652221</v>
       </c>
       <c r="K9">
-        <v>-203.7212453480939</v>
+        <v>180.1526951722796</v>
       </c>
       <c r="L9">
-        <v>491.0841402090232</v>
+        <v>469.7201628361979</v>
       </c>
       <c r="M9">
-        <v>-0.2299139768928488</v>
+        <v>0.2033151845515727</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -949,28 +949,28 @@
         <v>138</v>
       </c>
       <c r="F10">
-        <v>-1.229743481298468</v>
+        <v>1.25611806031877</v>
       </c>
       <c r="G10">
-        <v>248</v>
+        <v>1063</v>
       </c>
       <c r="H10">
-        <v>2.940475340362869</v>
+        <v>3.272051654772036</v>
       </c>
       <c r="I10">
-        <v>-0.418212478920742</v>
+        <v>0.3838931022029614</v>
       </c>
       <c r="J10">
-        <v>-57.71332209106239</v>
+        <v>52.97724810400867</v>
       </c>
       <c r="K10">
-        <v>-169.7046004191886</v>
+        <v>173.3442923239903</v>
       </c>
       <c r="L10">
-        <v>405.7855969700759</v>
+        <v>451.543128358541</v>
       </c>
       <c r="M10">
-        <v>-0.218279467930478</v>
+        <v>0.2229609557065817</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -990,28 +990,28 @@
         <v>147</v>
       </c>
       <c r="F11">
-        <v>-1.242059092717868</v>
+        <v>1.198423143393301</v>
       </c>
       <c r="G11">
-        <v>239</v>
+        <v>1037</v>
       </c>
       <c r="H11">
-        <v>3.081761681931781</v>
+        <v>3.200032482214129</v>
       </c>
       <c r="I11">
-        <v>-0.403035413153457</v>
+        <v>0.374503430841459</v>
       </c>
       <c r="J11">
-        <v>-59.24620573355818</v>
+        <v>55.05200433369447</v>
       </c>
       <c r="K11">
-        <v>-182.5826866295266</v>
+        <v>176.1682020788153</v>
       </c>
       <c r="L11">
-        <v>453.0189672439718</v>
+        <v>470.4047748854769</v>
       </c>
       <c r="M11">
-        <v>-0.2060576034818943</v>
+        <v>0.1988183994889487</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1031,28 +1031,28 @@
         <v>126</v>
       </c>
       <c r="F12">
-        <v>-1.36983489031502</v>
+        <v>1.21565510537072</v>
       </c>
       <c r="G12">
-        <v>243</v>
+        <v>1037</v>
       </c>
       <c r="H12">
-        <v>3.342848106818136</v>
+        <v>3.246045310290765</v>
       </c>
       <c r="I12">
-        <v>-0.4097807757166947</v>
+        <v>0.374503430841459</v>
       </c>
       <c r="J12">
-        <v>-51.63237774030354</v>
+        <v>47.18743228602384</v>
       </c>
       <c r="K12">
-        <v>-172.5991961796926</v>
+        <v>153.1725432767107</v>
       </c>
       <c r="L12">
-        <v>421.1988614590852</v>
+        <v>409.0017090966364</v>
       </c>
       <c r="M12">
-        <v>-0.2476661481689557</v>
+        <v>0.2197904430510261</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1072,28 +1072,28 @@
         <v>132</v>
       </c>
       <c r="F13">
-        <v>-1.386828197784421</v>
+        <v>1.181746586165116</v>
       </c>
       <c r="G13">
-        <v>243</v>
+        <v>1015</v>
       </c>
       <c r="H13">
-        <v>3.384317371547992</v>
+        <v>3.223897829646508</v>
       </c>
       <c r="I13">
-        <v>-0.4097807757166947</v>
+        <v>0.3665583243048032</v>
       </c>
       <c r="J13">
-        <v>-54.0910623946037</v>
+        <v>48.38569880823402</v>
       </c>
       <c r="K13">
-        <v>-183.0613221075436</v>
+        <v>155.9905493737953</v>
       </c>
       <c r="L13">
-        <v>446.7298930443349</v>
+        <v>425.5545135133391</v>
       </c>
       <c r="M13">
-        <v>-0.2870734369413752</v>
+        <v>0.244621543336179</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1113,28 +1113,28 @@
         <v>132</v>
       </c>
       <c r="F14">
-        <v>-1.263201731957539</v>
+        <v>1.099805042265056</v>
       </c>
       <c r="G14">
-        <v>251</v>
+        <v>1038</v>
       </c>
       <c r="H14">
-        <v>2.984377000202472</v>
+        <v>2.933872988470076</v>
       </c>
       <c r="I14">
-        <v>-0.4232715008431703</v>
+        <v>0.3748645720476707</v>
       </c>
       <c r="J14">
-        <v>-55.87183811129849</v>
+        <v>49.48212351029252</v>
       </c>
       <c r="K14">
-        <v>-166.7426286183951</v>
+        <v>145.1742655789873</v>
       </c>
       <c r="L14">
-        <v>393.9377640267263</v>
+        <v>387.27123447805</v>
       </c>
       <c r="M14">
-        <v>-0.2614827585152105</v>
+        <v>0.2276596437488665</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1154,28 +1154,28 @@
         <v>10</v>
       </c>
       <c r="F15">
-        <v>-1.336064612164176</v>
+        <v>1.196291467641218</v>
       </c>
       <c r="G15">
-        <v>200</v>
+        <v>984</v>
       </c>
       <c r="H15">
-        <v>3.961431575066782</v>
+        <v>3.366393367783061</v>
       </c>
       <c r="I15">
-        <v>-0.3372681281618887</v>
+        <v>0.3553629469122427</v>
       </c>
       <c r="J15">
-        <v>-3.372681281618887</v>
+        <v>3.553629469122427</v>
       </c>
       <c r="K15">
-        <v>-13.36064612164176</v>
+        <v>11.96291467641218</v>
       </c>
       <c r="L15">
-        <v>39.61431575066782</v>
+        <v>33.66393367783061</v>
       </c>
       <c r="M15">
-        <v>-0.6275495483335135</v>
+        <v>0.56189810235108</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1195,28 +1195,28 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>-1.569850289763436</v>
+        <v>1.266781318302295</v>
       </c>
       <c r="G16">
-        <v>180</v>
+        <v>850</v>
       </c>
       <c r="H16">
-        <v>5.171784565720653</v>
+        <v>4.126726435740063</v>
       </c>
       <c r="I16">
-        <v>-0.3035413153456998</v>
+        <v>0.3069700252798844</v>
       </c>
       <c r="J16">
-        <v>-0.3035413153456998</v>
+        <v>0.3069700252798844</v>
       </c>
       <c r="K16">
-        <v>-1.569850289763436</v>
+        <v>1.266781318302295</v>
       </c>
       <c r="L16">
-        <v>5.171784565720653</v>
+        <v>4.126726435740063</v>
       </c>
       <c r="M16">
-        <v>-2.573141609951248</v>
+        <v>2.076381258829291</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1236,28 +1236,28 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>-1.941194526548915</v>
+        <v>1.617668693133688</v>
       </c>
       <c r="G17">
-        <v>180</v>
+        <v>850</v>
       </c>
       <c r="H17">
-        <v>6.395157523575038</v>
+        <v>5.269793660337861</v>
       </c>
       <c r="I17">
-        <v>-0.3035413153456998</v>
+        <v>0.3069700252798844</v>
       </c>
       <c r="J17">
-        <v>-0.3035413153456998</v>
+        <v>0.3069700252798844</v>
       </c>
       <c r="K17">
-        <v>-1.941194526548915</v>
+        <v>1.617668693133688</v>
       </c>
       <c r="L17">
-        <v>6.395157523575038</v>
+        <v>5.269793660337861</v>
       </c>
       <c r="M17">
-        <v>-1.751928060210396</v>
+        <v>1.459945995553153</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1277,28 +1277,28 @@
         <v>10</v>
       </c>
       <c r="F18">
-        <v>-2.604479296865915</v>
+        <v>2.07786164865446</v>
       </c>
       <c r="G18">
-        <v>210</v>
+        <v>989</v>
       </c>
       <c r="H18">
-        <v>7.354553443054701</v>
+        <v>5.817592421763599</v>
       </c>
       <c r="I18">
-        <v>-0.3541315345699831</v>
+        <v>0.3571686529433009</v>
       </c>
       <c r="J18">
-        <v>-3.541315345699831</v>
+        <v>3.571686529433009</v>
       </c>
       <c r="K18">
-        <v>-26.04479296865915</v>
+        <v>20.7786164865446</v>
       </c>
       <c r="L18">
-        <v>73.54553443054701</v>
+        <v>58.17592421763599</v>
       </c>
       <c r="M18">
-        <v>-1.22332392573792</v>
+        <v>0.975971616373</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1318,28 +1318,28 @@
         <v>147</v>
       </c>
       <c r="F19">
-        <v>-5.870943482694221</v>
+        <v>5.88757762245243</v>
       </c>
       <c r="G19">
-        <v>529</v>
+        <v>2660</v>
       </c>
       <c r="H19">
-        <v>6.581227760373674</v>
+        <v>6.128835502470218</v>
       </c>
       <c r="I19">
-        <v>-0.8920741989881956</v>
+        <v>0.9606356085229325</v>
       </c>
       <c r="J19">
-        <v>-131.1349072512648</v>
+        <v>141.2134344528711</v>
       </c>
       <c r="K19">
-        <v>-863.0286919560505</v>
+        <v>865.4739105005073</v>
       </c>
       <c r="L19">
-        <v>967.4404807749301</v>
+        <v>900.938818863122</v>
       </c>
       <c r="M19">
-        <v>-0.9739895237789712</v>
+        <v>0.9767491275648581</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1359,28 +1359,28 @@
         <v>126</v>
       </c>
       <c r="F20">
-        <v>-5.733280510597251</v>
+        <v>5.812851535874445</v>
       </c>
       <c r="G20">
-        <v>533</v>
+        <v>2646</v>
       </c>
       <c r="H20">
-        <v>6.378677941433715</v>
+        <v>6.083063455342531</v>
       </c>
       <c r="I20">
-        <v>-0.8988195615514334</v>
+        <v>0.9555796316359697</v>
       </c>
       <c r="J20">
-        <v>-113.2512647554806</v>
+        <v>120.4030335861322</v>
       </c>
       <c r="K20">
-        <v>-722.3933443352537</v>
+        <v>732.41929352018</v>
       </c>
       <c r="L20">
-        <v>803.7134206206481</v>
+        <v>766.4659953731589</v>
       </c>
       <c r="M20">
-        <v>-1.036577116315983</v>
+        <v>1.0509635576861</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1400,28 +1400,28 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>-5.74997241794869</v>
+        <v>5.982717213719062</v>
       </c>
       <c r="G21">
-        <v>528</v>
+        <v>2667</v>
       </c>
       <c r="H21">
-        <v>6.457828870915858</v>
+        <v>6.2115275458523</v>
       </c>
       <c r="I21">
-        <v>-0.8903878583473862</v>
+        <v>0.9631635969664138</v>
       </c>
       <c r="J21">
-        <v>-0.8903878583473862</v>
+        <v>0.9631635969664138</v>
       </c>
       <c r="K21">
-        <v>-5.74997241794869</v>
+        <v>5.982717213719062</v>
       </c>
       <c r="L21">
-        <v>6.457828870915858</v>
+        <v>6.2115275458523</v>
       </c>
       <c r="M21">
-        <v>-1.438068101728967</v>
+        <v>1.496277575151137</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1441,28 +1441,28 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>-5.640545535320011</v>
+        <v>5.90439001227042</v>
       </c>
       <c r="G22">
-        <v>528</v>
+        <v>2654</v>
       </c>
       <c r="H22">
-        <v>6.33493087584236</v>
+        <v>6.160232081377843</v>
       </c>
       <c r="I22">
-        <v>-0.8903878583473862</v>
+        <v>0.9584687612856627</v>
       </c>
       <c r="J22">
-        <v>-0.8903878583473862</v>
+        <v>0.9584687612856627</v>
       </c>
       <c r="K22">
-        <v>-5.640545535320011</v>
+        <v>5.90439001227042</v>
       </c>
       <c r="L22">
-        <v>6.33493087584236</v>
+        <v>6.160232081377843</v>
       </c>
       <c r="M22">
-        <v>-1.485155639449759</v>
+        <v>1.554625890230802</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1482,28 +1482,28 @@
         <v>132</v>
       </c>
       <c r="F23">
-        <v>-5.670184722059346</v>
+        <v>5.96518581564149</v>
       </c>
       <c r="G23">
-        <v>526</v>
+        <v>2662</v>
       </c>
       <c r="H23">
-        <v>6.392432585895803</v>
+        <v>6.204958498689439</v>
       </c>
       <c r="I23">
-        <v>-0.8870151770657673</v>
+        <v>0.9613578909353557</v>
       </c>
       <c r="J23">
-        <v>-117.0860033726813</v>
+        <v>126.899241603467</v>
       </c>
       <c r="K23">
-        <v>-748.4643833118337</v>
+        <v>787.4045276646767</v>
       </c>
       <c r="L23">
-        <v>843.801101338246</v>
+        <v>819.0545218270059</v>
       </c>
       <c r="M23">
-        <v>-1.173728237466285</v>
+        <v>1.234793463837788</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1523,28 +1523,28 @@
         <v>147</v>
       </c>
       <c r="F24">
-        <v>-5.90410629164048</v>
+        <v>6.113701027613211</v>
       </c>
       <c r="G24">
-        <v>551</v>
+        <v>2733</v>
       </c>
       <c r="H24">
-        <v>6.354147061602187</v>
+        <v>6.19423276453018</v>
       </c>
       <c r="I24">
-        <v>-0.9291736930860034</v>
+        <v>0.9869989165763814</v>
       </c>
       <c r="J24">
-        <v>-136.5885328836425</v>
+        <v>145.0888407367281</v>
       </c>
       <c r="K24">
-        <v>-867.9036248711506</v>
+        <v>898.714051059142</v>
       </c>
       <c r="L24">
-        <v>934.0596180555215</v>
+        <v>910.5522163859365</v>
       </c>
       <c r="M24">
-        <v>-0.9794912337831556</v>
+        <v>1.014263000481032</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1564,28 +1564,28 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>-5.936563323629365</v>
+        <v>6.053417792746117</v>
       </c>
       <c r="G25">
-        <v>548</v>
+        <v>2742</v>
       </c>
       <c r="H25">
-        <v>6.424054837431046</v>
+        <v>6.113024751318015</v>
       </c>
       <c r="I25">
-        <v>-0.924114671163575</v>
+        <v>0.9902491874322861</v>
       </c>
       <c r="J25">
-        <v>-0.924114671163575</v>
+        <v>0.9902491874322861</v>
       </c>
       <c r="K25">
-        <v>-5.936563323629365</v>
+        <v>6.053417792746117</v>
       </c>
       <c r="L25">
-        <v>6.424054837431046</v>
+        <v>6.113024751318015</v>
       </c>
       <c r="M25">
-        <v>-1.814807408033497</v>
+        <v>1.850529819242488</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1605,28 +1605,28 @@
         <v>79</v>
       </c>
       <c r="F26">
-        <v>-5.613844239647763</v>
+        <v>6.011659451546155</v>
       </c>
       <c r="G26">
-        <v>526</v>
+        <v>2659</v>
       </c>
       <c r="H26">
-        <v>6.328915654203657</v>
+        <v>6.260355404788005</v>
       </c>
       <c r="I26">
-        <v>-0.8870151770657673</v>
+        <v>0.9602744673167208</v>
       </c>
       <c r="J26">
-        <v>-70.07419898819562</v>
+        <v>75.86168291802095</v>
       </c>
       <c r="K26">
-        <v>-443.4936949321733</v>
+        <v>474.9210966721462</v>
       </c>
       <c r="L26">
-        <v>499.9843366820889</v>
+        <v>494.5680769782523</v>
       </c>
       <c r="M26">
-        <v>-0.8723913948412625</v>
+        <v>0.9342118787702726</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1646,28 +1646,28 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>-7.933547208048734</v>
+        <v>8.238802175859341</v>
       </c>
       <c r="G27">
-        <v>545</v>
+        <v>2704</v>
       </c>
       <c r="H27">
-        <v>8.632281641051192</v>
+        <v>8.436850305086729</v>
       </c>
       <c r="I27">
-        <v>-0.9190556492411467</v>
+        <v>0.9765258215962441</v>
       </c>
       <c r="J27">
-        <v>-0.9190556492411467</v>
+        <v>0.9765258215962441</v>
       </c>
       <c r="K27">
-        <v>-7.933547208048734</v>
+        <v>8.238802175859341</v>
       </c>
       <c r="L27">
-        <v>8.632281641051192</v>
+        <v>8.436850305086729</v>
       </c>
       <c r="M27">
-        <v>-2.245987214598597</v>
+        <v>2.33240489598578</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1687,28 +1687,28 @@
         <v>76</v>
       </c>
       <c r="F28">
-        <v>-7.696823496179494</v>
+        <v>8.144680777923121</v>
       </c>
       <c r="G28">
-        <v>532</v>
+        <v>2649</v>
       </c>
       <c r="H28">
-        <v>8.579354009839173</v>
+        <v>8.513635739550441</v>
       </c>
       <c r="I28">
-        <v>-0.897133220910624</v>
+        <v>0.9566630552546046</v>
       </c>
       <c r="J28">
-        <v>-68.18212478920742</v>
+        <v>72.70639219934995</v>
       </c>
       <c r="K28">
-        <v>-584.9585857096415</v>
+        <v>618.9957391221571</v>
       </c>
       <c r="L28">
-        <v>652.0309047477772</v>
+        <v>647.0363162058335</v>
       </c>
       <c r="M28">
-        <v>-1.21994652414445</v>
+        <v>1.290931903300815</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1728,28 +1728,28 @@
         <v>79</v>
       </c>
       <c r="F29">
-        <v>-9.935534372928599</v>
+        <v>10.52408180249059</v>
       </c>
       <c r="G29">
-        <v>691</v>
+        <v>3404</v>
       </c>
       <c r="H29">
-        <v>8.526442667361302</v>
+        <v>8.560864427466642</v>
       </c>
       <c r="I29">
-        <v>-1.165261382799325</v>
+        <v>1.229324665944384</v>
       </c>
       <c r="J29">
-        <v>-92.05564924114671</v>
+        <v>97.11664860960634</v>
       </c>
       <c r="K29">
-        <v>-784.9072154613593</v>
+        <v>831.4024623967567</v>
       </c>
       <c r="L29">
-        <v>673.5889707215429</v>
+        <v>676.3082897698647</v>
       </c>
       <c r="M29">
-        <v>-1.543982041553104</v>
+        <v>1.635442312107038</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1769,28 +1769,28 @@
         <v>76</v>
       </c>
       <c r="F30">
-        <v>-10.02173117879184</v>
+        <v>10.46273555766015</v>
       </c>
       <c r="G30">
-        <v>696</v>
+        <v>3391</v>
       </c>
       <c r="H30">
-        <v>8.538630156643045</v>
+        <v>8.543590315293708</v>
       </c>
       <c r="I30">
-        <v>-1.173693086003373</v>
+        <v>1.224629830263633</v>
       </c>
       <c r="J30">
-        <v>-89.20067453625633</v>
+        <v>93.07186710003612</v>
       </c>
       <c r="K30">
-        <v>-761.6515695881797</v>
+        <v>795.1679023821716</v>
       </c>
       <c r="L30">
-        <v>648.9358919048714</v>
+        <v>649.3128639623218</v>
       </c>
       <c r="M30">
-        <v>-1.588444391838506</v>
+        <v>1.658343585889134</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1810,28 +1810,28 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>-10.71503770261952</v>
+        <v>11.34291312680351</v>
       </c>
       <c r="G31">
-        <v>755</v>
+        <v>3712</v>
       </c>
       <c r="H31">
-        <v>8.415917030004472</v>
+        <v>8.461348719859622</v>
       </c>
       <c r="I31">
-        <v>-1.27318718381113</v>
+        <v>1.340556157457566</v>
       </c>
       <c r="J31">
-        <v>-1.27318718381113</v>
+        <v>1.340556157457566</v>
       </c>
       <c r="K31">
-        <v>-10.71503770261952</v>
+        <v>11.34291312680351</v>
       </c>
       <c r="L31">
-        <v>8.415917030004472</v>
+        <v>8.461348719859622</v>
       </c>
       <c r="M31">
-        <v>-2.679830929425143</v>
+        <v>2.836862573013557</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1851,28 +1851,28 @@
         <v>79</v>
       </c>
       <c r="F32">
-        <v>-9.002693303816111</v>
+        <v>9.761678132179505</v>
       </c>
       <c r="G32">
-        <v>792</v>
+        <v>3941</v>
       </c>
       <c r="H32">
-        <v>6.740652940862315</v>
+        <v>6.858687325045686</v>
       </c>
       <c r="I32">
-        <v>-1.335581787521079</v>
+        <v>1.423257493680029</v>
       </c>
       <c r="J32">
-        <v>-105.5109612141653</v>
+        <v>112.4373420007223</v>
       </c>
       <c r="K32">
-        <v>-711.2127710014728</v>
+        <v>771.1725724421808</v>
       </c>
       <c r="L32">
-        <v>532.5115823281229</v>
+        <v>541.8362986786092</v>
       </c>
       <c r="M32">
-        <v>-1.399018539413024</v>
+        <v>1.516964781740695</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1892,28 +1892,28 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>-9.615281356421653</v>
+        <v>10.13755887636287</v>
       </c>
       <c r="G33">
-        <v>826</v>
+        <v>4058</v>
       </c>
       <c r="H33">
-        <v>6.902980441111429</v>
+        <v>6.917422505827698</v>
       </c>
       <c r="I33">
-        <v>-1.3929173693086</v>
+        <v>1.465511014806789</v>
       </c>
       <c r="J33">
-        <v>-1.3929173693086</v>
+        <v>1.465511014806789</v>
       </c>
       <c r="K33">
-        <v>-9.615281356421653</v>
+        <v>10.13755887636287</v>
       </c>
       <c r="L33">
-        <v>6.902980441111429</v>
+        <v>6.917422505827698</v>
       </c>
       <c r="M33">
-        <v>-1.854787773653737</v>
+        <v>1.955535107250398</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -1933,28 +1933,28 @@
         <v>76</v>
       </c>
       <c r="F34">
-        <v>-9.138062074899317</v>
+        <v>9.753079251361243</v>
       </c>
       <c r="G34">
-        <v>796</v>
+        <v>3936</v>
       </c>
       <c r="H34">
-        <v>6.807626646250371</v>
+        <v>6.861350723328069</v>
       </c>
       <c r="I34">
-        <v>-1.342327150084317</v>
+        <v>1.421451787648971</v>
       </c>
       <c r="J34">
-        <v>-102.0168634064081</v>
+        <v>108.0303358613218</v>
       </c>
       <c r="K34">
-        <v>-694.492717692348</v>
+        <v>741.2340231034544</v>
       </c>
       <c r="L34">
-        <v>517.3796251150281</v>
+        <v>521.4626549729333</v>
       </c>
       <c r="M34">
-        <v>-1.448382838871542</v>
+        <v>1.545863061340757</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -1974,28 +1974,28 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>-9.131566204073469</v>
+        <v>9.815037809001778</v>
       </c>
       <c r="G35">
-        <v>796</v>
+        <v>3943</v>
       </c>
       <c r="H35">
-        <v>6.802787385697949</v>
+        <v>6.892680622147076</v>
       </c>
       <c r="I35">
-        <v>-1.342327150084317</v>
+        <v>1.423979776092452</v>
       </c>
       <c r="J35">
-        <v>-1.342327150084317</v>
+        <v>1.423979776092452</v>
       </c>
       <c r="K35">
-        <v>-9.131566204073469</v>
+        <v>9.815037809001778</v>
       </c>
       <c r="L35">
-        <v>6.802787385697949</v>
+        <v>6.892680622147076</v>
       </c>
       <c r="M35">
-        <v>-2.283804707638774</v>
+        <v>2.454740956031344</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2015,28 +2015,28 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>-10.41888837835454</v>
+        <v>11.00812693695804</v>
       </c>
       <c r="G36">
-        <v>882</v>
+        <v>4344</v>
       </c>
       <c r="H36">
-        <v>7.004989578644267</v>
+        <v>7.016920692549911</v>
       </c>
       <c r="I36">
-        <v>-1.487352445193929</v>
+        <v>1.568797399783315</v>
       </c>
       <c r="J36">
-        <v>-1.487352445193929</v>
+        <v>1.568797399783315</v>
       </c>
       <c r="K36">
-        <v>-10.41888837835454</v>
+        <v>11.00812693695804</v>
       </c>
       <c r="L36">
-        <v>7.004989578644267</v>
+        <v>7.016920692549911</v>
       </c>
       <c r="M36">
-        <v>-2.743293310020751</v>
+        <v>2.898439822501052</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2056,28 +2056,28 @@
         <v>79</v>
       </c>
       <c r="F37">
-        <v>-11.56946863837189</v>
+        <v>12.2321596217434</v>
       </c>
       <c r="G37">
-        <v>818</v>
+        <v>3981</v>
       </c>
       <c r="H37">
-        <v>8.387157582584997</v>
+        <v>8.508126097113157</v>
       </c>
       <c r="I37">
-        <v>-1.379426644182125</v>
+        <v>1.437703141928494</v>
       </c>
       <c r="J37">
-        <v>-108.9747048903879</v>
+        <v>113.578548212351</v>
       </c>
       <c r="K37">
-        <v>-913.988022431379</v>
+        <v>966.3406101177288</v>
       </c>
       <c r="L37">
-        <v>662.5854490242148</v>
+        <v>672.1419616719394</v>
       </c>
       <c r="M37">
-        <v>-1.797895426402991</v>
+        <v>1.900877605218925</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2097,28 +2097,28 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <v>-11.69526274031067</v>
+        <v>12.40453442016786</v>
       </c>
       <c r="G38">
-        <v>836</v>
+        <v>4064</v>
       </c>
       <c r="H38">
-        <v>8.295802398330416</v>
+        <v>8.451809992481497</v>
       </c>
       <c r="I38">
-        <v>-1.409780775716695</v>
+        <v>1.467677862044059</v>
       </c>
       <c r="J38">
-        <v>-1.409780775716695</v>
+        <v>1.467677862044059</v>
       </c>
       <c r="K38">
-        <v>-11.69526274031067</v>
+        <v>12.40453442016786</v>
       </c>
       <c r="L38">
-        <v>8.295802398330416</v>
+        <v>8.451809992481497</v>
       </c>
       <c r="M38">
-        <v>-2.256016182605928</v>
+        <v>2.39283468965038</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2138,28 +2138,28 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>-11.48787381522198</v>
+        <v>12.22516650364489</v>
       </c>
       <c r="G39">
-        <v>819</v>
+        <v>3972</v>
       </c>
       <c r="H39">
-        <v>8.317837817370735</v>
+        <v>8.522529216664827</v>
       </c>
       <c r="I39">
-        <v>-1.381112984822934</v>
+        <v>1.434452871072589</v>
       </c>
       <c r="J39">
-        <v>-1.381112984822934</v>
+        <v>1.434452871072589</v>
       </c>
       <c r="K39">
-        <v>-11.48787381522198</v>
+        <v>12.22516650364489</v>
       </c>
       <c r="L39">
-        <v>8.317837817370735</v>
+        <v>8.522529216664827</v>
       </c>
       <c r="M39">
-        <v>-3.252217077089341</v>
+        <v>3.460944637181868</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2179,28 +2179,28 @@
         <v>76</v>
       </c>
       <c r="F40">
-        <v>-11.4343782080233</v>
+        <v>12.27105848330196</v>
       </c>
       <c r="G40">
-        <v>815</v>
+        <v>3978</v>
       </c>
       <c r="H40">
-        <v>8.319737763629226</v>
+        <v>8.541619140337636</v>
       </c>
       <c r="I40">
-        <v>-1.374367622259697</v>
+        <v>1.436619718309859</v>
       </c>
       <c r="J40">
-        <v>-104.4519392917369</v>
+        <v>109.1830985915493</v>
       </c>
       <c r="K40">
-        <v>-869.0127438097711</v>
+        <v>932.6004447309488</v>
       </c>
       <c r="L40">
-        <v>632.3000700358211</v>
+        <v>649.1630546656603</v>
       </c>
       <c r="M40">
-        <v>-1.812348945971694</v>
+        <v>1.94496276960336</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2220,28 +2220,28 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <v>-12.78573568213189</v>
+        <v>13.30149539203818</v>
       </c>
       <c r="G41">
-        <v>905</v>
+        <v>4342</v>
       </c>
       <c r="H41">
-        <v>8.377835645861007</v>
+        <v>8.482690175162071</v>
       </c>
       <c r="I41">
-        <v>-1.526138279932546</v>
+        <v>1.568075117370892</v>
       </c>
       <c r="J41">
-        <v>-1.526138279932546</v>
+        <v>1.568075117370892</v>
       </c>
       <c r="K41">
-        <v>-12.78573568213189</v>
+        <v>13.30149539203818</v>
       </c>
       <c r="L41">
-        <v>8.377835645861007</v>
+        <v>8.482690175162071</v>
       </c>
       <c r="M41">
-        <v>-3.908599398027719</v>
+        <v>4.066267141346071</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2258,25 +2258,25 @@
         <v>2938</v>
       </c>
       <c r="J42">
-        <v>-0.6599102072396705</v>
+        <v>0.6727378461479461</v>
       </c>
       <c r="K42">
-        <v>-3.869142688571507</v>
+        <v>3.958451905817137</v>
       </c>
       <c r="L42">
-        <v>5.863135084325626</v>
+        <v>5.884092783664514</v>
       </c>
       <c r="M42">
-        <v>-51.13218072290663</v>
+        <v>51.95984616547592</v>
       </c>
       <c r="N42">
-        <v>7</v>
+        <v>2769</v>
       </c>
       <c r="O42">
         <v>0.02</v>
       </c>
       <c r="P42">
-        <v>0.001820872037298217</v>
+        <v>0.01568197006948497</v>
       </c>
     </row>
   </sheetData>

--- a/MonteCarloResultsBUS6.xlsx
+++ b/MonteCarloResultsBUS6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
   <si>
     <t>Customer type</t>
   </si>
@@ -61,6 +61,12 @@
     <t>calculated beta</t>
   </si>
   <si>
+    <t>EENS 95% CI</t>
+  </si>
+  <si>
+    <t>EENS 99% CI</t>
+  </si>
+  <si>
     <t>LP1</t>
   </si>
   <si>
@@ -194,6 +200,12 @@
   </si>
   <si>
     <t>farm</t>
+  </si>
+  <si>
+    <t>(47.14575814494294, 50.709543601601005)</t>
+  </si>
+  <si>
+    <t>(46.585734716039525, 51.26956703050442)</t>
   </si>
 </sst>
 </file>
@@ -551,13 +563,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,13 +615,19 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2">
         <v>0.1775</v>
@@ -621,36 +639,36 @@
         <v>138</v>
       </c>
       <c r="F2">
-        <v>1.231171979127049</v>
+        <v>1.099165716524598</v>
       </c>
       <c r="G2">
-        <v>973</v>
+        <v>1191</v>
       </c>
       <c r="H2">
-        <v>3.503715529499278</v>
+        <v>3.197824691652168</v>
       </c>
       <c r="I2">
-        <v>0.3513903936439148</v>
+        <v>0.3437229437229437</v>
       </c>
       <c r="J2">
-        <v>48.49187432286024</v>
+        <v>47.43376623376624</v>
       </c>
       <c r="K2">
-        <v>169.9017331195327</v>
+        <v>151.6848688803945</v>
       </c>
       <c r="L2">
-        <v>483.5127430709003</v>
+        <v>441.2998074479992</v>
       </c>
       <c r="M2">
-        <v>0.2185330262950511</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>0.1951019146831161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3">
         <v>0.1808</v>
@@ -662,36 +680,36 @@
         <v>126</v>
       </c>
       <c r="F3">
-        <v>1.123142559993377</v>
+        <v>1.241122955337933</v>
       </c>
       <c r="G3">
-        <v>1004</v>
+        <v>1238</v>
       </c>
       <c r="H3">
-        <v>3.097591383089303</v>
+        <v>3.473740743332745</v>
       </c>
       <c r="I3">
-        <v>0.3625857710364753</v>
+        <v>0.3572871572871573</v>
       </c>
       <c r="J3">
-        <v>45.68580715059588</v>
+        <v>45.01818181818182</v>
       </c>
       <c r="K3">
-        <v>141.5159625591655</v>
+        <v>156.3814923725796</v>
       </c>
       <c r="L3">
-        <v>390.2965142692522</v>
+        <v>437.6913336599259</v>
       </c>
       <c r="M3">
-        <v>0.2030641748468025</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>0.2243950303250983</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C4">
         <v>0.1775</v>
@@ -703,36 +721,36 @@
         <v>138</v>
       </c>
       <c r="F4">
-        <v>1.267348158874041</v>
+        <v>1.178944038970983</v>
       </c>
       <c r="G4">
-        <v>1021</v>
+        <v>1216</v>
       </c>
       <c r="H4">
-        <v>3.437107788366523</v>
+        <v>3.3594087952586</v>
       </c>
       <c r="I4">
-        <v>0.368725171542073</v>
+        <v>0.3509379509379509</v>
       </c>
       <c r="J4">
-        <v>50.88407367280607</v>
+        <v>48.42943722943723</v>
       </c>
       <c r="K4">
-        <v>174.8940459246177</v>
+        <v>162.6942773779957</v>
       </c>
       <c r="L4">
-        <v>474.3208747945802</v>
+        <v>463.5984137456867</v>
       </c>
       <c r="M4">
-        <v>0.2249542982001423</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>0.2092625669173495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C5">
         <v>0.1808</v>
@@ -744,36 +762,36 @@
         <v>126</v>
       </c>
       <c r="F5">
-        <v>1.177506119739935</v>
+        <v>1.159800120461864</v>
       </c>
       <c r="G5">
-        <v>969</v>
+        <v>1214</v>
       </c>
       <c r="H5">
-        <v>3.364823989225883</v>
+        <v>3.310302650247414</v>
       </c>
       <c r="I5">
-        <v>0.3499458288190683</v>
+        <v>0.3503607503607504</v>
       </c>
       <c r="J5">
-        <v>44.09317443120261</v>
+        <v>44.14545454545455</v>
       </c>
       <c r="K5">
-        <v>148.3657710872319</v>
+        <v>146.1348151781949</v>
       </c>
       <c r="L5">
-        <v>423.9678226424613</v>
+        <v>417.0981339311741</v>
       </c>
       <c r="M5">
-        <v>0.2128931064489803</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>0.2096918617795051</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C6">
         <v>0.2163</v>
@@ -785,36 +803,36 @@
         <v>118</v>
       </c>
       <c r="F6">
-        <v>1.19117157729362</v>
+        <v>1.17820395937897</v>
       </c>
       <c r="G6">
-        <v>1035</v>
+        <v>1224</v>
       </c>
       <c r="H6">
-        <v>3.186815553165249</v>
+        <v>3.33535679677135</v>
       </c>
       <c r="I6">
-        <v>0.3737811484290358</v>
+        <v>0.3532467532467533</v>
       </c>
       <c r="J6">
-        <v>44.10617551462622</v>
+        <v>41.68311688311688</v>
       </c>
       <c r="K6">
-        <v>140.5582461206471</v>
+        <v>139.0280672067185</v>
       </c>
       <c r="L6">
-        <v>376.0442352734994</v>
+        <v>393.5721020190193</v>
       </c>
       <c r="M6">
-        <v>0.25765041216861</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>0.2548455164136713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7">
         <v>0.2163</v>
@@ -826,36 +844,36 @@
         <v>118</v>
       </c>
       <c r="F7">
-        <v>1.137193104189794</v>
+        <v>1.132479761981079</v>
       </c>
       <c r="G7">
-        <v>964</v>
+        <v>1184</v>
       </c>
       <c r="H7">
-        <v>3.266481022304501</v>
+        <v>3.314224979108479</v>
       </c>
       <c r="I7">
-        <v>0.3481401227880101</v>
+        <v>0.3417027417027417</v>
       </c>
       <c r="J7">
-        <v>41.08053448898519</v>
+        <v>40.32092352092352</v>
       </c>
       <c r="K7">
-        <v>134.1887862943956</v>
+        <v>133.6326119137673</v>
       </c>
       <c r="L7">
-        <v>385.4447606319311</v>
+        <v>391.0785475348005</v>
       </c>
       <c r="M7">
-        <v>0.2459748684362524</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>0.2449553725165074</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8">
         <v>0.1659</v>
@@ -867,36 +885,36 @@
         <v>147</v>
       </c>
       <c r="F8">
-        <v>1.215087287309962</v>
+        <v>1.184112240551451</v>
       </c>
       <c r="G8">
-        <v>1040</v>
+        <v>1336</v>
       </c>
       <c r="H8">
-        <v>3.235169902462775</v>
+        <v>3.071069546041001</v>
       </c>
       <c r="I8">
-        <v>0.3755868544600939</v>
+        <v>0.3855699855699856</v>
       </c>
       <c r="J8">
-        <v>55.2112676056338</v>
+        <v>56.67878787878788</v>
       </c>
       <c r="K8">
-        <v>178.6178312345644</v>
+        <v>174.0644993610633</v>
       </c>
       <c r="L8">
-        <v>475.5699756620279</v>
+        <v>451.4472232680271</v>
       </c>
       <c r="M8">
-        <v>0.2015829809647227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>0.1964442207074857</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C9">
         <v>0.1659</v>
@@ -908,36 +926,36 @@
         <v>147</v>
       </c>
       <c r="F9">
-        <v>1.225528538586936</v>
+        <v>1.304445177176725</v>
       </c>
       <c r="G9">
-        <v>1062</v>
+        <v>1353</v>
       </c>
       <c r="H9">
-        <v>3.195375257389101</v>
+        <v>3.340652283013564</v>
       </c>
       <c r="I9">
-        <v>0.3835319609967497</v>
+        <v>0.3904761904761905</v>
       </c>
       <c r="J9">
-        <v>56.37919826652221</v>
+        <v>57.4</v>
       </c>
       <c r="K9">
-        <v>180.1526951722796</v>
+        <v>191.7534410449786</v>
       </c>
       <c r="L9">
-        <v>469.7201628361979</v>
+        <v>491.0758856029939</v>
       </c>
       <c r="M9">
-        <v>0.2033151845515727</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>0.2164074548936187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C10">
         <v>0.1775</v>
@@ -949,36 +967,36 @@
         <v>138</v>
       </c>
       <c r="F10">
-        <v>1.25611806031877</v>
+        <v>1.16018560676037</v>
       </c>
       <c r="G10">
-        <v>1063</v>
+        <v>1346</v>
       </c>
       <c r="H10">
-        <v>3.272051654772036</v>
+        <v>2.986659084267965</v>
       </c>
       <c r="I10">
-        <v>0.3838931022029614</v>
+        <v>0.3884559884559884</v>
       </c>
       <c r="J10">
-        <v>52.97724810400867</v>
+        <v>53.60692640692641</v>
       </c>
       <c r="K10">
-        <v>173.3442923239903</v>
+        <v>160.105613732931</v>
       </c>
       <c r="L10">
-        <v>451.543128358541</v>
+        <v>412.1589536289792</v>
       </c>
       <c r="M10">
-        <v>0.2229609557065817</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>0.2059329451999656</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C11">
         <v>0.1659</v>
@@ -990,36 +1008,36 @@
         <v>147</v>
       </c>
       <c r="F11">
-        <v>1.198423143393301</v>
+        <v>1.121883769226641</v>
       </c>
       <c r="G11">
-        <v>1037</v>
+        <v>1302</v>
       </c>
       <c r="H11">
-        <v>3.200032482214129</v>
+        <v>2.985658418103158</v>
       </c>
       <c r="I11">
-        <v>0.374503430841459</v>
+        <v>0.3757575757575757</v>
       </c>
       <c r="J11">
-        <v>55.05200433369447</v>
+        <v>55.23636363636363</v>
       </c>
       <c r="K11">
-        <v>176.1682020788153</v>
+        <v>164.9169140763163</v>
       </c>
       <c r="L11">
-        <v>470.4047748854769</v>
+        <v>438.8917874611643</v>
       </c>
       <c r="M11">
-        <v>0.1988183994889487</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>0.1861205173146998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C12">
         <v>0.1808</v>
@@ -1031,36 +1049,36 @@
         <v>126</v>
       </c>
       <c r="F12">
-        <v>1.21565510537072</v>
+        <v>1.260589961866565</v>
       </c>
       <c r="G12">
-        <v>1037</v>
+        <v>1336</v>
       </c>
       <c r="H12">
-        <v>3.246045310290765</v>
+        <v>3.269419324751232</v>
       </c>
       <c r="I12">
-        <v>0.374503430841459</v>
+        <v>0.3855699855699856</v>
       </c>
       <c r="J12">
-        <v>47.18743228602384</v>
+        <v>48.58181818181818</v>
       </c>
       <c r="K12">
-        <v>153.1725432767107</v>
+        <v>158.8343351951871</v>
       </c>
       <c r="L12">
-        <v>409.0017090966364</v>
+        <v>411.9468349186553</v>
       </c>
       <c r="M12">
-        <v>0.2197904430510261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>0.2279146651054749</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C13">
         <v>0.207</v>
@@ -1072,36 +1090,36 @@
         <v>132</v>
       </c>
       <c r="F13">
-        <v>1.181746586165116</v>
+        <v>1.134252177537598</v>
       </c>
       <c r="G13">
-        <v>1015</v>
+        <v>1296</v>
       </c>
       <c r="H13">
-        <v>3.223897829646508</v>
+        <v>3.032549224666494</v>
       </c>
       <c r="I13">
-        <v>0.3665583243048032</v>
+        <v>0.374025974025974</v>
       </c>
       <c r="J13">
-        <v>48.38569880823402</v>
+        <v>49.37142857142857</v>
       </c>
       <c r="K13">
-        <v>155.9905493737953</v>
+        <v>149.7212874349629</v>
       </c>
       <c r="L13">
-        <v>425.5545135133391</v>
+        <v>400.2964976559772</v>
       </c>
       <c r="M13">
-        <v>0.244621543336179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>0.2347902007502827</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C14">
         <v>0.207</v>
@@ -1113,36 +1131,36 @@
         <v>132</v>
       </c>
       <c r="F14">
-        <v>1.099805042265056</v>
+        <v>1.103636340038585</v>
       </c>
       <c r="G14">
-        <v>1038</v>
+        <v>1310</v>
       </c>
       <c r="H14">
-        <v>2.933872988470076</v>
+        <v>2.919160242926486</v>
       </c>
       <c r="I14">
-        <v>0.3748645720476707</v>
+        <v>0.3780663780663781</v>
       </c>
       <c r="J14">
-        <v>49.48212351029252</v>
+        <v>49.90476190476191</v>
       </c>
       <c r="K14">
-        <v>145.1742655789873</v>
+        <v>145.6799968850932</v>
       </c>
       <c r="L14">
-        <v>387.27123447805</v>
+        <v>385.3291520662962</v>
       </c>
       <c r="M14">
-        <v>0.2276596437488665</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>0.2284527223879871</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C15">
         <v>0.4697</v>
@@ -1154,36 +1172,36 @@
         <v>10</v>
       </c>
       <c r="F15">
-        <v>1.196291467641218</v>
+        <v>1.100963334672282</v>
       </c>
       <c r="G15">
-        <v>984</v>
+        <v>1262</v>
       </c>
       <c r="H15">
-        <v>3.366393367783061</v>
+        <v>3.022850994167558</v>
       </c>
       <c r="I15">
-        <v>0.3553629469122427</v>
+        <v>0.3642135642135642</v>
       </c>
       <c r="J15">
-        <v>3.553629469122427</v>
+        <v>3.642135642135642</v>
       </c>
       <c r="K15">
-        <v>11.96291467641218</v>
+        <v>11.00963334672282</v>
       </c>
       <c r="L15">
-        <v>33.66393367783061</v>
+        <v>30.22850994167558</v>
       </c>
       <c r="M15">
-        <v>0.56189810235108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>0.517122478295571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C16">
         <v>1.6391</v>
@@ -1195,36 +1213,36 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1.266781318302295</v>
+        <v>1.218436348801647</v>
       </c>
       <c r="G16">
-        <v>850</v>
+        <v>1086</v>
       </c>
       <c r="H16">
-        <v>4.126726435740063</v>
+        <v>3.887552438856085</v>
       </c>
       <c r="I16">
-        <v>0.3069700252798844</v>
+        <v>0.3134199134199134</v>
       </c>
       <c r="J16">
-        <v>0.3069700252798844</v>
+        <v>0.3134199134199134</v>
       </c>
       <c r="K16">
-        <v>1.266781318302295</v>
+        <v>1.218436348801647</v>
       </c>
       <c r="L16">
-        <v>4.126726435740063</v>
+        <v>3.887552438856085</v>
       </c>
       <c r="M16">
-        <v>2.076381258829291</v>
+        <v>1.99713901932078</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C17">
         <v>0.9025</v>
@@ -1236,36 +1254,36 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1.617668693133688</v>
+        <v>1.581392005470328</v>
       </c>
       <c r="G17">
-        <v>850</v>
+        <v>1086</v>
       </c>
       <c r="H17">
-        <v>5.269793660337861</v>
+        <v>5.045601564414997</v>
       </c>
       <c r="I17">
-        <v>0.3069700252798844</v>
+        <v>0.3134199134199134</v>
       </c>
       <c r="J17">
-        <v>0.3069700252798844</v>
+        <v>0.3134199134199134</v>
       </c>
       <c r="K17">
-        <v>1.617668693133688</v>
+        <v>1.581392005470328</v>
       </c>
       <c r="L17">
-        <v>5.269793660337861</v>
+        <v>5.045601564414997</v>
       </c>
       <c r="M17">
-        <v>1.459945995553153</v>
+        <v>1.427206284936971</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C18">
         <v>0.4697</v>
@@ -1277,36 +1295,36 @@
         <v>10</v>
       </c>
       <c r="F18">
-        <v>2.07786164865446</v>
+        <v>2.194060181640541</v>
       </c>
       <c r="G18">
-        <v>989</v>
+        <v>1286</v>
       </c>
       <c r="H18">
-        <v>5.817592421763599</v>
+        <v>5.911678483191658</v>
       </c>
       <c r="I18">
-        <v>0.3571686529433009</v>
+        <v>0.3711399711399712</v>
       </c>
       <c r="J18">
-        <v>3.571686529433009</v>
+        <v>3.711399711399712</v>
       </c>
       <c r="K18">
-        <v>20.7786164865446</v>
+        <v>21.94060181640541</v>
       </c>
       <c r="L18">
-        <v>58.17592421763599</v>
+        <v>59.11678483191658</v>
       </c>
       <c r="M18">
-        <v>0.975971616373</v>
+        <v>1.030550067316562</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C19">
         <v>0.1659</v>
@@ -1318,36 +1336,36 @@
         <v>147</v>
       </c>
       <c r="F19">
-        <v>5.88757762245243</v>
+        <v>5.640419310555719</v>
       </c>
       <c r="G19">
-        <v>2660</v>
+        <v>3247</v>
       </c>
       <c r="H19">
-        <v>6.128835502470218</v>
+        <v>6.019110844187116</v>
       </c>
       <c r="I19">
-        <v>0.9606356085229325</v>
+        <v>0.9370851370851371</v>
       </c>
       <c r="J19">
-        <v>141.2134344528711</v>
+        <v>137.7515151515152</v>
       </c>
       <c r="K19">
-        <v>865.4739105005073</v>
+        <v>829.1416386516906</v>
       </c>
       <c r="L19">
-        <v>900.938818863122</v>
+        <v>884.8092940955061</v>
       </c>
       <c r="M19">
-        <v>0.9767491275648581</v>
+        <v>0.9357455636211937</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C20">
         <v>0.1808</v>
@@ -1359,36 +1377,36 @@
         <v>126</v>
       </c>
       <c r="F20">
-        <v>5.812851535874445</v>
+        <v>5.679388942242144</v>
       </c>
       <c r="G20">
-        <v>2646</v>
+        <v>3250</v>
       </c>
       <c r="H20">
-        <v>6.083063455342531</v>
+        <v>6.055102364575085</v>
       </c>
       <c r="I20">
-        <v>0.9555796316359697</v>
+        <v>0.937950937950938</v>
       </c>
       <c r="J20">
-        <v>120.4030335861322</v>
+        <v>118.1818181818182</v>
       </c>
       <c r="K20">
-        <v>732.41929352018</v>
+        <v>715.6030067225101</v>
       </c>
       <c r="L20">
-        <v>766.4659953731589</v>
+        <v>762.9428979364608</v>
       </c>
       <c r="M20">
-        <v>1.0509635576861</v>
+        <v>1.02683352075738</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C21">
         <v>0.2501</v>
@@ -1400,36 +1418,36 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>5.982717213719062</v>
+        <v>5.685796060543568</v>
       </c>
       <c r="G21">
-        <v>2667</v>
+        <v>3259</v>
       </c>
       <c r="H21">
-        <v>6.2115275458523</v>
+        <v>6.045192804474827</v>
       </c>
       <c r="I21">
-        <v>0.9631635969664138</v>
+        <v>0.9405483405483406</v>
       </c>
       <c r="J21">
-        <v>0.9631635969664138</v>
+        <v>0.9405483405483406</v>
       </c>
       <c r="K21">
-        <v>5.982717213719062</v>
+        <v>5.685796060543568</v>
       </c>
       <c r="L21">
-        <v>6.2115275458523</v>
+        <v>6.045192804474827</v>
       </c>
       <c r="M21">
-        <v>1.496277575151137</v>
+        <v>1.422017594741946</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C22">
         <v>0.2633</v>
@@ -1441,36 +1459,36 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>5.90439001227042</v>
+        <v>5.605952951421179</v>
       </c>
       <c r="G22">
-        <v>2654</v>
+        <v>3249</v>
       </c>
       <c r="H22">
-        <v>6.160232081377843</v>
+        <v>5.978647884479651</v>
       </c>
       <c r="I22">
-        <v>0.9584687612856627</v>
+        <v>0.9376623376623376</v>
       </c>
       <c r="J22">
-        <v>0.9584687612856627</v>
+        <v>0.9376623376623376</v>
       </c>
       <c r="K22">
-        <v>5.90439001227042</v>
+        <v>5.605952951421179</v>
       </c>
       <c r="L22">
-        <v>6.160232081377843</v>
+        <v>5.978647884479651</v>
       </c>
       <c r="M22">
-        <v>1.554625890230802</v>
+        <v>1.476047412109196</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C23">
         <v>0.207</v>
@@ -1482,36 +1500,36 @@
         <v>132</v>
       </c>
       <c r="F23">
-        <v>5.96518581564149</v>
+        <v>5.714001066131444</v>
       </c>
       <c r="G23">
-        <v>2662</v>
+        <v>3260</v>
       </c>
       <c r="H23">
-        <v>6.204958498689439</v>
+        <v>6.073317084093698</v>
       </c>
       <c r="I23">
-        <v>0.9613578909353557</v>
+        <v>0.9408369408369408</v>
       </c>
       <c r="J23">
-        <v>126.899241603467</v>
+        <v>124.1904761904762</v>
       </c>
       <c r="K23">
-        <v>787.4045276646767</v>
+        <v>754.2481407293506</v>
       </c>
       <c r="L23">
-        <v>819.0545218270059</v>
+        <v>801.6778551003681</v>
       </c>
       <c r="M23">
-        <v>1.234793463837788</v>
+        <v>1.182798220689209</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C24">
         <v>0.1659</v>
@@ -1523,36 +1541,36 @@
         <v>147</v>
       </c>
       <c r="F24">
-        <v>6.113701027613211</v>
+        <v>5.80545869236929</v>
       </c>
       <c r="G24">
-        <v>2733</v>
+        <v>3344</v>
       </c>
       <c r="H24">
-        <v>6.19423276453018</v>
+        <v>6.01552463189581</v>
       </c>
       <c r="I24">
-        <v>0.9869989165763814</v>
+        <v>0.9650793650793651</v>
       </c>
       <c r="J24">
-        <v>145.0888407367281</v>
+        <v>141.8666666666667</v>
       </c>
       <c r="K24">
-        <v>898.714051059142</v>
+        <v>853.4024277782855</v>
       </c>
       <c r="L24">
-        <v>910.5522163859365</v>
+        <v>884.2821208886839</v>
       </c>
       <c r="M24">
-        <v>1.014263000481032</v>
+        <v>0.9631255970640651</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C25">
         <v>0.3057</v>
@@ -1564,36 +1582,36 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>6.053417792746117</v>
+        <v>5.884553257200345</v>
       </c>
       <c r="G25">
-        <v>2742</v>
+        <v>3364</v>
       </c>
       <c r="H25">
-        <v>6.113024751318015</v>
+        <v>6.061229796729844</v>
       </c>
       <c r="I25">
-        <v>0.9902491874322861</v>
+        <v>0.9708513708513709</v>
       </c>
       <c r="J25">
-        <v>0.9902491874322861</v>
+        <v>0.9708513708513709</v>
       </c>
       <c r="K25">
-        <v>6.053417792746117</v>
+        <v>5.884553257200345</v>
       </c>
       <c r="L25">
-        <v>6.113024751318015</v>
+        <v>6.061229796729844</v>
       </c>
       <c r="M25">
-        <v>1.850529819242488</v>
+        <v>1.798907930726146</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C26">
         <v>0.1554</v>
@@ -1605,36 +1623,36 @@
         <v>79</v>
       </c>
       <c r="F26">
-        <v>6.011659451546155</v>
+        <v>5.633817441086527</v>
       </c>
       <c r="G26">
-        <v>2659</v>
+        <v>3248</v>
       </c>
       <c r="H26">
-        <v>6.260355404788005</v>
+        <v>6.010214727021187</v>
       </c>
       <c r="I26">
-        <v>0.9602744673167208</v>
+        <v>0.9373737373737374</v>
       </c>
       <c r="J26">
-        <v>75.86168291802095</v>
+        <v>74.05252525252526</v>
       </c>
       <c r="K26">
-        <v>474.9210966721462</v>
+        <v>445.0715778458356</v>
       </c>
       <c r="L26">
-        <v>494.5680769782523</v>
+        <v>474.8069634346738</v>
       </c>
       <c r="M26">
-        <v>0.9342118787702726</v>
+        <v>0.8754952303448463</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C27">
         <v>0.2831</v>
@@ -1646,36 +1664,36 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>8.238802175859341</v>
+        <v>7.904200551785404</v>
       </c>
       <c r="G27">
-        <v>2704</v>
+        <v>3356</v>
       </c>
       <c r="H27">
-        <v>8.436850305086729</v>
+        <v>8.160922202603226</v>
       </c>
       <c r="I27">
-        <v>0.9765258215962441</v>
+        <v>0.9685425685425686</v>
       </c>
       <c r="J27">
-        <v>0.9765258215962441</v>
+        <v>0.9685425685425686</v>
       </c>
       <c r="K27">
-        <v>8.238802175859341</v>
+        <v>7.904200551785404</v>
       </c>
       <c r="L27">
-        <v>8.436850305086729</v>
+        <v>8.160922202603226</v>
       </c>
       <c r="M27">
-        <v>2.33240489598578</v>
+        <v>2.237679176210448</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C28">
         <v>0.1585</v>
@@ -1687,36 +1705,36 @@
         <v>76</v>
       </c>
       <c r="F28">
-        <v>8.144680777923121</v>
+        <v>7.613276722649738</v>
       </c>
       <c r="G28">
-        <v>2649</v>
+        <v>3252</v>
       </c>
       <c r="H28">
-        <v>8.513635739550441</v>
+        <v>8.111932301347275</v>
       </c>
       <c r="I28">
-        <v>0.9566630552546046</v>
+        <v>0.9385281385281385</v>
       </c>
       <c r="J28">
-        <v>72.70639219934995</v>
+        <v>71.32813852813852</v>
       </c>
       <c r="K28">
-        <v>618.9957391221571</v>
+        <v>578.6090309213801</v>
       </c>
       <c r="L28">
-        <v>647.0363162058335</v>
+        <v>616.5068549023929</v>
       </c>
       <c r="M28">
-        <v>1.290931903300815</v>
+        <v>1.206704360539983</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C29">
         <v>0.1554</v>
@@ -1728,36 +1746,36 @@
         <v>79</v>
       </c>
       <c r="F29">
-        <v>10.52408180249059</v>
+        <v>9.634580263146201</v>
       </c>
       <c r="G29">
-        <v>3404</v>
+        <v>4212</v>
       </c>
       <c r="H29">
-        <v>8.560864427466642</v>
+        <v>7.92588333613523</v>
       </c>
       <c r="I29">
-        <v>1.229324665944384</v>
+        <v>1.215584415584416</v>
       </c>
       <c r="J29">
-        <v>97.11664860960634</v>
+        <v>96.03116883116883</v>
       </c>
       <c r="K29">
-        <v>831.4024623967567</v>
+        <v>761.1318407885499</v>
       </c>
       <c r="L29">
-        <v>676.3082897698647</v>
+        <v>626.1447835546832</v>
       </c>
       <c r="M29">
-        <v>1.635442312107038</v>
+        <v>1.49721377289292</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C30">
         <v>0.1585</v>
@@ -1769,36 +1787,36 @@
         <v>76</v>
       </c>
       <c r="F30">
-        <v>10.46273555766015</v>
+        <v>9.578541498800208</v>
       </c>
       <c r="G30">
-        <v>3391</v>
+        <v>4206</v>
       </c>
       <c r="H30">
-        <v>8.543590315293708</v>
+        <v>7.891023845302596</v>
       </c>
       <c r="I30">
-        <v>1.224629830263633</v>
+        <v>1.213852813852814</v>
       </c>
       <c r="J30">
-        <v>93.07186710003612</v>
+        <v>92.25281385281386</v>
       </c>
       <c r="K30">
-        <v>795.1679023821716</v>
+        <v>727.9691539088158</v>
       </c>
       <c r="L30">
-        <v>649.3128639623218</v>
+        <v>599.7178122429973</v>
       </c>
       <c r="M30">
-        <v>1.658343585889134</v>
+        <v>1.518198827559833</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C31">
         <v>0.2501</v>
@@ -1810,36 +1828,36 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>11.34291312680351</v>
+        <v>10.6140516877935</v>
       </c>
       <c r="G31">
-        <v>3712</v>
+        <v>4631</v>
       </c>
       <c r="H31">
-        <v>8.461348719859622</v>
+        <v>7.941630122695847</v>
       </c>
       <c r="I31">
-        <v>1.340556157457566</v>
+        <v>1.336507936507936</v>
       </c>
       <c r="J31">
-        <v>1.340556157457566</v>
+        <v>1.336507936507936</v>
       </c>
       <c r="K31">
-        <v>11.34291312680351</v>
+        <v>10.6140516877935</v>
       </c>
       <c r="L31">
-        <v>8.461348719859622</v>
+        <v>7.941630122695847</v>
       </c>
       <c r="M31">
-        <v>2.836862573013557</v>
+        <v>2.654574327117154</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C32">
         <v>0.1554</v>
@@ -1851,36 +1869,36 @@
         <v>79</v>
       </c>
       <c r="F32">
-        <v>9.761678132179505</v>
+        <v>9.155053004644319</v>
       </c>
       <c r="G32">
-        <v>3941</v>
+        <v>4843</v>
       </c>
       <c r="H32">
-        <v>6.858687325045686</v>
+        <v>6.550125678524172</v>
       </c>
       <c r="I32">
-        <v>1.423257493680029</v>
+        <v>1.397691197691198</v>
       </c>
       <c r="J32">
-        <v>112.4373420007223</v>
+        <v>110.4176046176046</v>
       </c>
       <c r="K32">
-        <v>771.1725724421808</v>
+        <v>723.2491873669012</v>
       </c>
       <c r="L32">
-        <v>541.8362986786092</v>
+        <v>517.4599286034096</v>
       </c>
       <c r="M32">
-        <v>1.516964781740695</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+        <v>1.422695236921727</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C33">
         <v>0.1929</v>
@@ -1892,36 +1910,36 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>10.13755887636287</v>
+        <v>9.359017177669143</v>
       </c>
       <c r="G33">
-        <v>4058</v>
+        <v>4957</v>
       </c>
       <c r="H33">
-        <v>6.917422505827698</v>
+        <v>6.542060625504051</v>
       </c>
       <c r="I33">
-        <v>1.465511014806789</v>
+        <v>1.430591630591631</v>
       </c>
       <c r="J33">
-        <v>1.465511014806789</v>
+        <v>1.430591630591631</v>
       </c>
       <c r="K33">
-        <v>10.13755887636287</v>
+        <v>9.359017177669143</v>
       </c>
       <c r="L33">
-        <v>6.917422505827698</v>
+        <v>6.542060625504051</v>
       </c>
       <c r="M33">
-        <v>1.955535107250398</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+        <v>1.805354413572378</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C34">
         <v>0.1585</v>
@@ -1933,36 +1951,36 @@
         <v>76</v>
       </c>
       <c r="F34">
-        <v>9.753079251361243</v>
+        <v>9.077970407222042</v>
       </c>
       <c r="G34">
-        <v>3936</v>
+        <v>4842</v>
       </c>
       <c r="H34">
-        <v>6.861350723328069</v>
+        <v>6.496317112974881</v>
       </c>
       <c r="I34">
-        <v>1.421451787648971</v>
+        <v>1.397402597402597</v>
       </c>
       <c r="J34">
-        <v>108.0303358613218</v>
+        <v>106.2025974025974</v>
       </c>
       <c r="K34">
-        <v>741.2340231034544</v>
+        <v>689.9257509488751</v>
       </c>
       <c r="L34">
-        <v>521.4626549729333</v>
+        <v>493.720100586091</v>
       </c>
       <c r="M34">
-        <v>1.545863061340757</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+        <v>1.438858309544694</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C35">
         <v>0.2501</v>
@@ -1974,36 +1992,36 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>9.815037809001778</v>
+        <v>9.131626516942349</v>
       </c>
       <c r="G35">
-        <v>3943</v>
+        <v>4835</v>
       </c>
       <c r="H35">
-        <v>6.892680622147076</v>
+        <v>6.544174949577092</v>
       </c>
       <c r="I35">
-        <v>1.423979776092452</v>
+        <v>1.395382395382395</v>
       </c>
       <c r="J35">
-        <v>1.423979776092452</v>
+        <v>1.395382395382395</v>
       </c>
       <c r="K35">
-        <v>9.815037809001778</v>
+        <v>9.131626516942349</v>
       </c>
       <c r="L35">
-        <v>6.892680622147076</v>
+        <v>6.544174949577092</v>
       </c>
       <c r="M35">
-        <v>2.454740956031344</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
+        <v>2.283819791887281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C36">
         <v>0.2633</v>
@@ -2015,36 +2033,36 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>11.00812693695804</v>
+        <v>10.10583115403177</v>
       </c>
       <c r="G36">
-        <v>4344</v>
+        <v>5295</v>
       </c>
       <c r="H36">
-        <v>7.016920692549911</v>
+        <v>6.613164296264416</v>
       </c>
       <c r="I36">
-        <v>1.568797399783315</v>
+        <v>1.528138528138528</v>
       </c>
       <c r="J36">
-        <v>1.568797399783315</v>
+        <v>1.528138528138528</v>
       </c>
       <c r="K36">
-        <v>11.00812693695804</v>
+        <v>10.10583115403177</v>
       </c>
       <c r="L36">
-        <v>7.016920692549911</v>
+        <v>6.613164296264416</v>
       </c>
       <c r="M36">
-        <v>2.898439822501052</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
+        <v>2.660865342856565</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C37">
         <v>0.1554</v>
@@ -2056,36 +2074,36 @@
         <v>79</v>
       </c>
       <c r="F37">
-        <v>12.2321596217434</v>
+        <v>11.30629756454918</v>
       </c>
       <c r="G37">
-        <v>3981</v>
+        <v>4825</v>
       </c>
       <c r="H37">
-        <v>8.508126097113157</v>
+        <v>8.11944477951563</v>
       </c>
       <c r="I37">
-        <v>1.437703141928494</v>
+        <v>1.392496392496392</v>
       </c>
       <c r="J37">
-        <v>113.578548212351</v>
+        <v>110.007215007215</v>
       </c>
       <c r="K37">
-        <v>966.3406101177288</v>
+        <v>893.1975075993853</v>
       </c>
       <c r="L37">
-        <v>672.1419616719394</v>
+        <v>641.4361375817348</v>
       </c>
       <c r="M37">
-        <v>1.900877605218925</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
+        <v>1.756998641530943</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C38">
         <v>0.1929</v>
@@ -2097,36 +2115,36 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <v>12.40453442016786</v>
+        <v>11.53702382424418</v>
       </c>
       <c r="G38">
-        <v>4064</v>
+        <v>4922</v>
       </c>
       <c r="H38">
-        <v>8.451809992481497</v>
+        <v>8.12185850284561</v>
       </c>
       <c r="I38">
-        <v>1.467677862044059</v>
+        <v>1.42049062049062</v>
       </c>
       <c r="J38">
-        <v>1.467677862044059</v>
+        <v>1.42049062049062</v>
       </c>
       <c r="K38">
-        <v>12.40453442016786</v>
+        <v>11.53702382424418</v>
       </c>
       <c r="L38">
-        <v>8.451809992481497</v>
+        <v>8.12185850284561</v>
       </c>
       <c r="M38">
-        <v>2.39283468965038</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
+        <v>2.225491895696702</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C39">
         <v>0.2831</v>
@@ -2138,36 +2156,36 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>12.22516650364489</v>
+        <v>11.20098169558815</v>
       </c>
       <c r="G39">
-        <v>3972</v>
+        <v>4811</v>
       </c>
       <c r="H39">
-        <v>8.522529216664827</v>
+        <v>8.067221279404064</v>
       </c>
       <c r="I39">
-        <v>1.434452871072589</v>
+        <v>1.388455988455988</v>
       </c>
       <c r="J39">
-        <v>1.434452871072589</v>
+        <v>1.388455988455988</v>
       </c>
       <c r="K39">
-        <v>12.22516650364489</v>
+        <v>11.20098169558815</v>
       </c>
       <c r="L39">
-        <v>8.522529216664827</v>
+        <v>8.067221279404064</v>
       </c>
       <c r="M39">
-        <v>3.460944637181868</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
+        <v>3.170997918021006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C40">
         <v>0.1585</v>
@@ -2179,36 +2197,36 @@
         <v>76</v>
       </c>
       <c r="F40">
-        <v>12.27105848330196</v>
+        <v>11.20205498305126</v>
       </c>
       <c r="G40">
-        <v>3978</v>
+        <v>4805</v>
       </c>
       <c r="H40">
-        <v>8.541619140337636</v>
+        <v>8.078068785904811</v>
       </c>
       <c r="I40">
-        <v>1.436619718309859</v>
+        <v>1.386724386724387</v>
       </c>
       <c r="J40">
-        <v>109.1830985915493</v>
+        <v>105.3910533910534</v>
       </c>
       <c r="K40">
-        <v>932.6004447309488</v>
+        <v>851.3561787118958</v>
       </c>
       <c r="L40">
-        <v>649.1630546656603</v>
+        <v>613.9332277287657</v>
       </c>
       <c r="M40">
-        <v>1.94496276960336</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
+        <v>1.775525714813625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C41">
         <v>0.3057</v>
@@ -2220,33 +2238,33 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <v>13.30149539203818</v>
+        <v>12.39962100008213</v>
       </c>
       <c r="G41">
-        <v>4342</v>
+        <v>5282</v>
       </c>
       <c r="H41">
-        <v>8.482690175162071</v>
+        <v>8.134170156244718</v>
       </c>
       <c r="I41">
-        <v>1.568075117370892</v>
+        <v>1.524386724386724</v>
       </c>
       <c r="J41">
-        <v>1.568075117370892</v>
+        <v>1.524386724386724</v>
       </c>
       <c r="K41">
-        <v>13.30149539203818</v>
+        <v>12.39962100008213</v>
       </c>
       <c r="L41">
-        <v>8.482690175162071</v>
+        <v>8.134170156244718</v>
       </c>
       <c r="M41">
-        <v>4.066267141346071</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
+        <v>3.790564139725109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C42">
         <v>10.7157</v>
@@ -2258,25 +2276,31 @@
         <v>2938</v>
       </c>
       <c r="J42">
-        <v>0.6727378461479461</v>
+        <v>0.6628000318265805</v>
       </c>
       <c r="K42">
-        <v>3.958451905817137</v>
+        <v>3.741564459505909</v>
       </c>
       <c r="L42">
-        <v>5.884092783664514</v>
+        <v>5.645087929755678</v>
       </c>
       <c r="M42">
-        <v>51.95984616547592</v>
+        <v>48.93284577780899</v>
       </c>
       <c r="N42">
-        <v>2769</v>
+        <v>3465</v>
       </c>
       <c r="O42">
         <v>0.02</v>
       </c>
       <c r="P42">
-        <v>0.01568197006948497</v>
+        <v>0.01858108711124844</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>62</v>
+      </c>
+      <c r="R42" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
